--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DivyeshGohil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC4FFA-BD89-47CF-B964-0B88752134FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F614B-25E2-4D28-AB76-9BC689A2331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>source</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>https://www.addact.net/sitemap</t>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -602,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,6 +866,14 @@
       </c>
       <c r="B31" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DivyeshGohil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F614B-25E2-4D28-AB76-9BC689A2331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC4FFA-BD89-47CF-B964-0B88752134FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>source</t>
   </si>
@@ -198,12 +198,6 @@
   </si>
   <si>
     <t>https://www.addact.net/sitemap</t>
-  </si>
-  <si>
-    <t>/test</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
 </sst>
 </file>
@@ -608,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,14 +860,6 @@
       </c>
       <c r="B31" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DivyeshGohil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC4FFA-BD89-47CF-B964-0B88752134FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C2D1A-EC09-45F9-9FF1-29723E2DCF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>source</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>https://www.addact.net/sitemap</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +276,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,264 +620,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C2D1A-EC09-45F9-9FF1-29723E2DCF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1008F6-675C-4DFF-B7A3-9B0189F7EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>source</t>
   </si>
@@ -44,169 +44,58 @@
     <t>destination</t>
   </si>
   <si>
-    <t>https://www.addxp.com/</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/contentful-cms-services</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/umbraco-development-service</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/hire-umbraco-developer</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/kentico-development-service</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/contentstack-cms-services</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/strapi-cms-services</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/strapi-plugin-development-service</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/sitecore-xm-cloud-service</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/user-experience</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/content-experience</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/commerce-experience</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/contact-us</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/about-us</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/careers</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/blogs-insights</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/brand-guidelines</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/case-studies</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/case-studies/automotive-manufacturer-umbraco-upgrade-performance-security</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/case-studies/transforming-a-website-with-kentico-cms</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/case-studies/a-kentico-powered-data-integration-solution</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/case-studies/strapi-cms-cases-study</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/case-studies/umbraco-migration-case-studies</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/press-release</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/kontent-ai-development-service</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/virto-commerce-services</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/privacy-policy</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/terms-conditions</t>
-  </si>
-  <si>
-    <t>https://www.addxp.com/sitemap</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/contentful/contentful-cms-services</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/umbraco/umbraco-development-service</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/umbraco/hire-umbraco-developer</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/kentico/kentico-development-service</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/contentstack/contentstack-cms-services</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/strapi/strapi-cms-services</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/sitecore/sitecore-cms-development</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/contact</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/about-us</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/careers</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/blogs</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/brand-guidelines</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/work</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/work/automotive-manufacturer-umbraco-upgrade-performance-security</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/work/transforming-a-website-with-kentico-cms</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/work/a-kentico-powered-data-integration-solution</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/work/strapi-cms-cases-study</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/work/umbraco-migration-case-studies</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/press-releases</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/privacy-policy</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/terms-of-use</t>
-  </si>
-  <si>
-    <t>https://www.addact.net/sitemap</t>
-  </si>
-  <si>
     <t>permanent</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>false</t>
+    <t>/services/sitecore-cms-development</t>
+  </si>
+  <si>
+    <t>/services/sitecore-platform-upgrade</t>
+  </si>
+  <si>
+    <t>/services/sitecore-consultation</t>
+  </si>
+  <si>
+    <t>/services/sitecore-xm-cloud</t>
+  </si>
+  <si>
+    <t>/services/sitecore-support-and-managed-services</t>
+  </si>
+  <si>
+    <t>/services/sitecore-platform-integrations</t>
+  </si>
+  <si>
+    <t>/services/sitecore-audit-services</t>
+  </si>
+  <si>
+    <t>/hire-sitecore-developers</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development/sitecore-platform-upgrade</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development/sitecore-consultation</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development/sitecore-xm-cloud</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development/sitecore-support-and-managed-services</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development/sitecore-platform-integrations</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development/sitecore-audit-services</t>
+  </si>
+  <si>
+    <t>/sitecore-cms-development/hire-sitecore-developers</t>
   </si>
 </sst>
 </file>
@@ -623,7 +512,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,399 +530,225 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1C4F0C41-4B0D-4075-9090-03BED8D8E1E9}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{06295BF3-1537-4287-B63C-E60AEA682B2C}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{F9BCF43B-FB69-43A1-B646-770E3474DE85}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{A8CA4633-F0D8-436E-A8DB-69FFE4EFE2C1}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{EA83EDA4-9963-4010-A207-6A378018BA44}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{92C8F3A6-E8CB-42C4-93F9-1C834E7462FA}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{623E6200-C08B-47D2-80D5-F5389B8BDA32}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{CC37E3CC-DD3A-4C8E-80E7-B10B2EB64214}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{EBE585BE-B73C-4652-8FFB-8B7D737ADBF7}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{C6D0CA5A-EECF-45D0-8F4F-931B776EFBA2}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{26ACE4F1-C021-43E8-AD27-33BC0FECB76D}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{002331C0-DFCD-46CB-A60B-02D15B4B4260}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{D1FB4085-88C7-4F15-BE8E-B33DCFAC9C5E}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{A66334A5-1677-4910-8B8C-AB01D5D66630}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{E3CB9152-A201-4889-A8D3-4E78B721BCC7}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{A01845CF-C721-4F97-B782-688F3DAEBCF6}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{4E46F9F4-2DF7-4441-9A9D-501E59FA4190}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{74633796-812F-4E29-8BD3-71411CCE896A}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{9073FB2C-BEE5-4682-9AC3-2BB95BDD43AA}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{AECA6870-C0E8-4524-AD0C-C5E0AE5BA9EB}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{5D3B3A9F-7596-4F48-AEAF-0493EA0D464D}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{0A8E8704-EC23-48FB-886D-7C81EF765525}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{D41125AB-3967-4B36-8137-BC8F85F2472E}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{B16D5477-1444-4310-86AE-116F45464EED}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{58BEF699-8FCB-4AD3-B141-B76C4C1D61A4}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{22938F95-CDE6-4599-A25B-CFDA83ED4FC9}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{69332B7B-3B66-44DF-934D-D2663AE50651}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{BAF947DB-282F-416F-9A0A-A6A1EC1DE577}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{E601723D-D5A0-44DF-A7C9-AA9E91D5776D}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{7E4161C2-8805-4F9E-A4AA-22F3477FBC37}"/>
-    <hyperlink ref="B2" r:id="rId31" xr:uid="{FF8A085A-C613-496D-8955-AA7C697D3972}"/>
-    <hyperlink ref="B3" r:id="rId32" xr:uid="{4E1C9767-239E-4412-A870-284C26AF7163}"/>
-    <hyperlink ref="B4" r:id="rId33" xr:uid="{A09C66A1-E345-4C65-AF0A-8B7C079D64D6}"/>
-    <hyperlink ref="B5" r:id="rId34" xr:uid="{3CD2CBC9-3477-43D8-A50A-DB274AE3943C}"/>
-    <hyperlink ref="B6" r:id="rId35" xr:uid="{9C4F7BCC-C724-4FE5-AB7E-641CDF988126}"/>
-    <hyperlink ref="B7" r:id="rId36" xr:uid="{A21CF6E1-8847-4D9B-8933-332BC22754EE}"/>
-    <hyperlink ref="B8" r:id="rId37" xr:uid="{C5A2BF0E-B6A7-4422-9C66-17D21D889A80}"/>
-    <hyperlink ref="B9" r:id="rId38" xr:uid="{594BDEDE-A18B-42A3-B9C8-C69C06D553D6}"/>
-    <hyperlink ref="B10" r:id="rId39" xr:uid="{0A8E94CB-0BA0-4BFB-92D8-918D42DA31B3}"/>
-    <hyperlink ref="B11" r:id="rId40" xr:uid="{490B6E72-53F7-4E3B-A367-B9B3890FFB08}"/>
-    <hyperlink ref="B12" r:id="rId41" xr:uid="{03A54F74-0A9F-45DE-822B-24958E7BE8C0}"/>
-    <hyperlink ref="B13" r:id="rId42" xr:uid="{69F78D04-9340-4634-8455-4299C55B18FC}"/>
-    <hyperlink ref="B14" r:id="rId43" xr:uid="{E47D1B0F-AF32-4600-A813-748B3CFD0F25}"/>
-    <hyperlink ref="B15" r:id="rId44" xr:uid="{277E7AAB-550F-4A07-AEF8-E6A6D52E5D3A}"/>
-    <hyperlink ref="B16" r:id="rId45" xr:uid="{60A4C366-ED23-4661-A4DF-01F390DA00EF}"/>
-    <hyperlink ref="B17" r:id="rId46" xr:uid="{C37D176C-D19A-44F1-B847-CF73D44C91D3}"/>
-    <hyperlink ref="B18" r:id="rId47" xr:uid="{06B3503B-6361-4546-A0E1-23D168E71A65}"/>
-    <hyperlink ref="B19" r:id="rId48" xr:uid="{48E27C85-592E-4ED4-A85E-DBC6D2E39E74}"/>
-    <hyperlink ref="B20" r:id="rId49" xr:uid="{DC693B24-60D3-46F6-8DC4-ABB82D2290C4}"/>
-    <hyperlink ref="B21" r:id="rId50" xr:uid="{78BBB79C-1830-4159-BC99-3AF12FB18501}"/>
-    <hyperlink ref="B22" r:id="rId51" xr:uid="{5B086CBA-A5AC-46D9-9B19-9EA678AEB5F9}"/>
-    <hyperlink ref="B23" r:id="rId52" xr:uid="{B0A0C2B0-955A-47B0-8F84-D62B006D0F31}"/>
-    <hyperlink ref="B24" r:id="rId53" xr:uid="{FAEF0769-7BF2-45E2-A13C-787FD31C8751}"/>
-    <hyperlink ref="B25" r:id="rId54" xr:uid="{446548CC-3135-4AD3-BBC8-F3DB5C97FBDF}"/>
-    <hyperlink ref="B26" r:id="rId55" xr:uid="{B01D3B68-53D5-4F99-ACC8-F512FD594C4D}"/>
-    <hyperlink ref="B29" r:id="rId56" xr:uid="{900E8625-FF3B-44F7-AEFC-A711E3872E7C}"/>
-    <hyperlink ref="B30" r:id="rId57" xr:uid="{887ABEE6-659C-4493-A709-EC4CCF30AA5F}"/>
-    <hyperlink ref="B31" r:id="rId58" xr:uid="{4C200947-6872-463F-930A-F891B8228D1F}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.addact.net/services/sitecore-cms-development" xr:uid="{3A5488DC-AD52-4890-9E05-AAA474230A9A}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.addact.net/services/sitecore-platform-upgrade" xr:uid="{5747DC5F-3799-49AE-B848-2BDC8B0FE93F}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.addact.net/services/sitecore-consultation" xr:uid="{67366524-1977-4C5F-8498-83CFC03A0A69}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.addact.net/services/sitecore-xm-cloud" xr:uid="{9C2C43AF-2912-4DEA-ADAE-2789B41F862B}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.addact.net/services/sitecore-support-and-managed-services" xr:uid="{70DC750F-7F7C-4E65-8969-D42D7767963E}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.addact.net/services/sitecore-platform-integrations" xr:uid="{5D912709-F65B-42A7-9067-CCEE3E50CFC8}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.addact.net/services/sitecore-audit-services" xr:uid="{40268C1D-C872-474F-8AF6-9B6A10B8B0C1}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.addact.net/hire-sitecore-developers" xr:uid="{3D75BB10-5627-479C-95BC-B139A132CDA6}"/>
+    <hyperlink ref="B2" r:id="rId9" display="https://www.addact.net/sitecore/sitecore-cms-development" xr:uid="{1FADDE26-DB78-48B3-8DD2-1C0C06BC9560}"/>
+    <hyperlink ref="B3" r:id="rId10" display="https://www.addact.net/sitecore/sitecore-platform-upgrade" xr:uid="{C0C64854-D65E-49B9-A021-D64B135CEC7E}"/>
+    <hyperlink ref="B4" r:id="rId11" display="https://www.addact.net/sitecore/sitecore-consultation" xr:uid="{93764A2A-3A36-439E-B752-2E6E39D8CFF6}"/>
+    <hyperlink ref="B5" r:id="rId12" display="https://www.addact.net/sitecore/sitecore-xm-cloud" xr:uid="{26135A0C-2F53-4C48-9E01-F1A4CD79ACA7}"/>
+    <hyperlink ref="B6" r:id="rId13" display="https://www.addact.net/sitecore/sitecore-support-and-managed-services" xr:uid="{80EAD21B-6559-4AB0-A12D-5F9380BFE7B2}"/>
+    <hyperlink ref="B7" r:id="rId14" display="https://www.addact.net/sitecore/sitecore-platform-integrations" xr:uid="{C93A7D6A-4582-48CF-BDC7-56F3DEF0666C}"/>
+    <hyperlink ref="B8" r:id="rId15" display="https://www.addact.net/sitecore/sitecore-audit-services" xr:uid="{5A63A534-BBC2-4826-B29E-2FB4160CF40A}"/>
+    <hyperlink ref="B9" r:id="rId16" display="https://www.addact.net/sitecore/hire-sitecore-developers" xr:uid="{698B60E7-79B4-4FA3-B990-07E4547A8ED7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7451FADA-3732-4C66-8B06-30BE1E5DBA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DBFDBA-CE0E-4C30-946A-7691AB067838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="627">
   <si>
     <t>source</t>
   </si>
@@ -1827,33 +1827,6 @@
   </si>
   <si>
     <t>/press-releases/addact-technologies-pvt-ltd-maulik-dudharejia-wins-sitecore-most-valuable-professional-award</t>
-  </si>
-  <si>
-    <t>/portfolio/sitecore-ordercloud-implementation</t>
-  </si>
-  <si>
-    <t>/portfolio/sitecore-upgradation</t>
-  </si>
-  <si>
-    <t>/portfolio/content-hub-implementation</t>
-  </si>
-  <si>
-    <t>/portfolio/sitecore-upgradation-casestudy-2</t>
-  </si>
-  <si>
-    <t>/portfolio/sitecore-upgrade-version-9-0-2-to-10-2</t>
-  </si>
-  <si>
-    <t>/portfolio/sitecore-upgrade-version-8-1-to-10-1</t>
-  </si>
-  <si>
-    <t>/portfolio/assembling-sitecore-10-12-next-js-10-0-3-and-react-17-0-1</t>
-  </si>
-  <si>
-    <t>/portfolio/modernizing-a-legacy-site-with-sitecore-xm-cloud</t>
-  </si>
-  <si>
-    <t>/portfolio/Modernizing-a-Legacy-Site-with-Sitecore-XM-Cloud</t>
   </si>
   <si>
     <t>/services/sitecore-module-development</t>
@@ -2367,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
-  <dimension ref="A1:C333"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298:XFD304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5647,12 +5620,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>597</v>
+    <row r="298" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>3</v>
@@ -5660,21 +5633,21 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>599</v>
+    <row r="300" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>3</v>
@@ -5682,10 +5655,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>3</v>
@@ -5693,10 +5666,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>3</v>
@@ -5704,10 +5677,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>3</v>
@@ -5715,10 +5688,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>3</v>
@@ -5726,21 +5699,21 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>577</v>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>598</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>3</v>
@@ -5748,21 +5721,21 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>581</v>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>598</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>3</v>
@@ -5773,7 +5746,7 @@
         <v>606</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>3</v>
@@ -5781,10 +5754,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>3</v>
@@ -5792,10 +5765,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>3</v>
@@ -5806,7 +5779,7 @@
         <v>610</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>3</v>
@@ -5817,7 +5790,7 @@
         <v>611</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>3</v>
@@ -5828,7 +5801,7 @@
         <v>612</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>3</v>
@@ -5836,10 +5809,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>3</v>
@@ -5847,10 +5820,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>607</v>
+        <v>616</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>3</v>
@@ -5858,10 +5831,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>607</v>
+        <v>617</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>3</v>
@@ -5869,10 +5842,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>607</v>
+        <v>618</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>3</v>
@@ -5880,10 +5853,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>3</v>
@@ -5891,10 +5864,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>607</v>
+        <v>620</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>3</v>
@@ -5902,10 +5875,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>582</v>
+        <v>621</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>3</v>
@@ -5913,10 +5886,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="B322" s="3" t="s">
         <v>622</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>3</v>
@@ -5927,7 +5900,7 @@
         <v>623</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>3</v>
@@ -5935,10 +5908,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>3</v>
@@ -5946,100 +5919,12 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>607</v>
-      </c>
       <c r="C325" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C333" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6637,70 +6522,54 @@
     <hyperlink ref="B296" r:id="rId590" display="https://www.addact.net/press-releases/one-more-feather-added-to-addact-crown-addact-has-grown-2-sitecore-ordercloud-certification" xr:uid="{880C9B90-62E1-48DB-B67A-4D5CE1E59A0F}"/>
     <hyperlink ref="A297" r:id="rId591" display="https://www.addact.net/news/press-releases/addact-technologies-pvt-ltd-maulik-dudharejia-wins-sitecore-most-valuable-professional-award" xr:uid="{6D5A2269-8B57-41B7-A108-0C3926410B80}"/>
     <hyperlink ref="B297" r:id="rId592" display="https://www.addact.net/press-releases/addact-technologies-pvt-ltd-maulik-dudharejia-wins-sitecore-most-valuable-professional-award" xr:uid="{94659362-28AD-4567-A0EE-EDB0CA57A4A8}"/>
-    <hyperlink ref="A298" r:id="rId593" display="https://www.addact.net/portfolio/sitecore-ordercloud-implementation" xr:uid="{242F4F55-FBC2-4E76-9F5E-6DAFE0E7CCEE}"/>
-    <hyperlink ref="B298" r:id="rId594" display="https://www.addact.net/portfolio/sitecore-ordercloud-implementation" xr:uid="{5E9610BC-AA9D-487C-957D-0474900DA494}"/>
-    <hyperlink ref="A299" r:id="rId595" display="https://www.addact.net/portfolio/sitecore-upgradation" xr:uid="{96EE2567-27D9-4DEF-BC7C-D410040E07FD}"/>
-    <hyperlink ref="B299" r:id="rId596" display="https://www.addact.net/portfolio/sitecore-upgradation" xr:uid="{F941EDCB-E3FC-4DEB-940F-4DC3130A7DAB}"/>
-    <hyperlink ref="A300" r:id="rId597" display="https://www.addact.net/portfolio/content-hub-implementation" xr:uid="{6FF7C79A-0E64-439A-9E6A-A7772AB9FA94}"/>
-    <hyperlink ref="B300" r:id="rId598" display="https://www.addact.net/portfolio/content-hub-implementation" xr:uid="{4C665ED4-460D-4906-BA6B-46EF1438E89E}"/>
-    <hyperlink ref="A301" r:id="rId599" display="https://www.addact.net/portfolio/sitecore-upgradation-casestudy-2" xr:uid="{BB62FE99-19D7-4C32-83E3-71A0C57C1AF2}"/>
-    <hyperlink ref="B301" r:id="rId600" display="https://www.addact.net/portfolio/sitecore-upgradation-casestudy-2" xr:uid="{1FDC158F-7B2F-4505-BF03-D21DA8DF6251}"/>
-    <hyperlink ref="A302" r:id="rId601" display="https://www.addact.net/portfolio/sitecore-upgrade-version-9-0-2-to-10-2" xr:uid="{1828F5FF-C0D1-480E-B6CB-AF4AC5265FAB}"/>
-    <hyperlink ref="B302" r:id="rId602" display="https://www.addact.net/portfolio/sitecore-upgrade-version-9-0-2-to-10-2" xr:uid="{009768D6-ADBA-4EAF-8583-1B942E05D21B}"/>
-    <hyperlink ref="A303" r:id="rId603" display="https://www.addact.net/portfolio/sitecore-upgrade-version-8-1-to-10-1" xr:uid="{F722F708-85DA-43C8-9876-E901D52CBBEE}"/>
-    <hyperlink ref="B303" r:id="rId604" display="https://www.addact.net/portfolio/sitecore-upgrade-version-8-1-to-10-1" xr:uid="{0DE565E1-D1F6-4F36-A364-22B1C867F21D}"/>
-    <hyperlink ref="A304" r:id="rId605" display="https://www.addact.net/portfolio/assembling-sitecore-10-12-next-js-10-0-3-and-react-17-0-1" xr:uid="{1962B64B-ED06-4E29-84D5-56D4FB15943E}"/>
-    <hyperlink ref="B304" r:id="rId606" display="https://www.addact.net/portfolio/assembling-sitecore-10-12-next-js-10-0-3-and-react-17-0-1" xr:uid="{6BC38A69-F2F5-43C1-A335-EBB9143E4E40}"/>
-    <hyperlink ref="A305" r:id="rId607" display="https://www.addact.net/portfolio/modernizing-a-legacy-site-with-sitecore-xm-cloud" xr:uid="{2BE3D70F-A0B2-4B63-852C-A10DE41A51D9}"/>
-    <hyperlink ref="B305" r:id="rId608" display="https://www.addact.net/portfolio/Modernizing-a-Legacy-Site-with-Sitecore-XM-Cloud" xr:uid="{E9DAAEB5-3B97-4D57-AEF2-AFC449109D5F}"/>
-    <hyperlink ref="A306" r:id="rId609" display="https://www.addact.net/news/press-releases/addact-team-members-win-sitecore-most-valued-professional-award" xr:uid="{41869E78-D4DD-4A01-8018-5632F573D195}"/>
-    <hyperlink ref="B306" r:id="rId610" display="https://www.addact.net/press-releases/addact-team-members-win-sitecore-most-valued-professional-award" xr:uid="{5F73D9C2-7873-48EB-AC13-5E6FA665E513}"/>
-    <hyperlink ref="A307" r:id="rId611" display="https://www.addact.net/news/press-releases/addact-launches-addxp-a-digital-experience-company" xr:uid="{71EF3A32-A1DF-4BD2-B97A-82B9CF9916FB}"/>
-    <hyperlink ref="B307" r:id="rId612" display="https://www.addact.net/press-releases/addact-launches-addxp-a-digital-experience-company" xr:uid="{2B8F13B1-A874-483A-8209-25C0C3BBD5A4}"/>
-    <hyperlink ref="A308" r:id="rId613" display="https://www.addact.net/news/press-releases/addact-achieves-iso-certification-for-quality-management-system-and-information-security-management-system" xr:uid="{4DDE7435-7E06-4424-8945-159A5AC24AED}"/>
-    <hyperlink ref="B308" r:id="rId614" display="https://www.addact.net/press-releases/addact-achieves-iso-certification-for-quality-management-system-and-information-security-management-system" xr:uid="{CB71038F-3FC0-464A-81BB-743AE2226D89}"/>
-    <hyperlink ref="A309" r:id="rId615" display="https://www.addact.net/services/sitecore-module-development" xr:uid="{43E0337B-19E3-4E82-B453-D77992D8C042}"/>
-    <hyperlink ref="B309" r:id="rId616" display="https://www.addact.net/" xr:uid="{0BC7393D-7A66-4D39-BDDD-111503C454C5}"/>
-    <hyperlink ref="A310" r:id="rId617" display="https://www.addact.net/services/sitecore-content-hub-development" xr:uid="{F7361A3F-1036-4462-A60F-59CC7A06170A}"/>
-    <hyperlink ref="B310" r:id="rId618" display="https://www.addact.net/" xr:uid="{9F85E195-B52A-4D6C-ADC4-003CE214FDD5}"/>
-    <hyperlink ref="A311" r:id="rId619" display="https://www.addact.net/services/sitecore-cdp" xr:uid="{6E60F1DE-59EC-47ED-8D78-2AFC4CC3C72B}"/>
-    <hyperlink ref="B311" r:id="rId620" display="https://www.addact.net/" xr:uid="{E45C9C01-E913-478A-B389-628349A7049E}"/>
-    <hyperlink ref="A312" r:id="rId621" display="https://www.addact.net/services/sitecore-send" xr:uid="{37886053-D810-41FA-AD6E-7A2A69FE9237}"/>
-    <hyperlink ref="B312" r:id="rId622" display="https://www.addact.net/" xr:uid="{3D1D65BE-8765-48E6-85F3-980FD6885A9A}"/>
-    <hyperlink ref="A313" r:id="rId623" display="https://www.addact.net/services/sitecore-cmp-and-mrm" xr:uid="{5524DAAB-DD1A-44AA-BB53-137110141D91}"/>
-    <hyperlink ref="B313" r:id="rId624" display="https://www.addact.net/" xr:uid="{590D821A-22A8-42F3-9507-CE12EFAC3414}"/>
-    <hyperlink ref="A314" r:id="rId625" display="https://www.addact.net/ordercloud" xr:uid="{FC161FFA-ADF3-49D4-861B-3DB818A2AE96}"/>
-    <hyperlink ref="B314" r:id="rId626" display="https://www.addact.net/" xr:uid="{4A5F8415-F36F-4CFF-835A-7E4D8D2612CB}"/>
-    <hyperlink ref="A315" r:id="rId627" display="https://www.addact.net/services/sitecore-discover" xr:uid="{B7405909-5B4F-48F4-A197-1213189EAF70}"/>
-    <hyperlink ref="B315" r:id="rId628" display="https://www.addact.net/" xr:uid="{7C7F1617-32D5-4488-8BBB-8A2CE6156AFA}"/>
-    <hyperlink ref="A316" r:id="rId629" display="https://www.addact.net/services/sitecore-devops-azure-aws" xr:uid="{689DA6F0-C594-46A8-88FB-33316960C094}"/>
-    <hyperlink ref="B316" r:id="rId630" display="https://www.addact.net/" xr:uid="{FBFC7B79-39AE-405C-8A0D-B99958DAC2EB}"/>
-    <hyperlink ref="A317" r:id="rId631" display="https://www.addact.net/ui-ux-sitecore-sxa" xr:uid="{1BCA8A14-67BE-433E-9678-D13B2F32AE65}"/>
-    <hyperlink ref="B317" r:id="rId632" display="https://www.addact.net/" xr:uid="{626045DB-D146-4337-9E8C-D0A7473EF4FE}"/>
-    <hyperlink ref="A318" r:id="rId633" display="https://www.addact.net/sitecore-digital-marketing" xr:uid="{30E954D1-24D6-4845-B68B-1488A57D180B}"/>
-    <hyperlink ref="B318" r:id="rId634" display="https://www.addact.net/" xr:uid="{1A6023BA-1381-4EB2-BCD3-A7B9D12A9FF1}"/>
-    <hyperlink ref="A319" r:id="rId635" display="https://www.addact.net/our-story" xr:uid="{D6FDA075-46C5-418C-B6B8-5B8454245093}"/>
-    <hyperlink ref="B319" r:id="rId636" display="https://www.addact.net/about-us" xr:uid="{E9CA7F96-7ED1-4C8F-88A0-CD145260120B}"/>
-    <hyperlink ref="A320" r:id="rId637" display="https://www.addact.net/b2b-technology-partner" xr:uid="{A7620173-41F0-4192-BAC8-2E15C7C45111}"/>
-    <hyperlink ref="B320" r:id="rId638" display="https://www.addact.net/" xr:uid="{774002E6-EA2C-46CA-A457-66A021BBED1D}"/>
-    <hyperlink ref="A321" r:id="rId639" display="https://www.addact.net/things-to-know-about-sitecore-discover-webinar" xr:uid="{6E276BBB-D7B9-4638-9EA9-70645EB3736E}"/>
-    <hyperlink ref="B321" r:id="rId640" display="https://www.addact.net/webinar/things-to-know-about-sitecore-discover-webinar" xr:uid="{D53F354D-8144-4913-AD7C-B155CF42D3E5}"/>
-    <hyperlink ref="A322" r:id="rId641" display="https://www.addact.net/technical-overview-of-sitecore-discover" xr:uid="{60CACD52-04EF-4587-9106-340C54DF47C3}"/>
-    <hyperlink ref="B322" r:id="rId642" display="https://www.addact.net/webinar/technical-overview-of-sitecore-discover" xr:uid="{F9E41BBB-2EBA-4BA7-A9F7-7C0CAD9729C1}"/>
-    <hyperlink ref="A323" r:id="rId643" display="https://www.addact.net/sitecore-discover-implementation-through-sdk-webinar" xr:uid="{8C9C1CB1-8107-447F-B9E9-89BD50459854}"/>
-    <hyperlink ref="B323" r:id="rId644" display="https://www.addact.net/webinar/sitecore-discover-implementation-through-sdk" xr:uid="{A3E78CB6-FD7A-461F-AC6F-FCF50A9C8C55}"/>
-    <hyperlink ref="A324" r:id="rId645" display="https://www.addact.net/business-development-manager-hire" xr:uid="{3D86D21E-1D94-45D0-8A38-9F3A77F007D6}"/>
-    <hyperlink ref="A325" r:id="rId646" display="https://www.addact.net/business-development-lead-generator-specialist-hire" xr:uid="{BF80580F-9F20-4AAA-8B44-06EB7916BE52}"/>
-    <hyperlink ref="A326" r:id="rId647" display="https://www.addact.net/content-writer" xr:uid="{EB7D6A71-2DCB-4346-BC4A-E1EE319C0F94}"/>
-    <hyperlink ref="A327" r:id="rId648" display="https://www.addact.net/sitecore-developer" xr:uid="{AE3A7535-5E50-4FCA-ACC6-F9BE751FE108}"/>
-    <hyperlink ref="A328" r:id="rId649" display="https://www.addact.net/dot-net-developer" xr:uid="{2E591E5C-E482-4B88-9A8E-CE6AAA504048}"/>
-    <hyperlink ref="A329" r:id="rId650" display="https://www.addact.net/umbracoco-developer" xr:uid="{34C5E714-8347-4EB7-A01F-239B3F4F4D7E}"/>
-    <hyperlink ref="A330" r:id="rId651" display="https://www.addact.net/terms-of-use" xr:uid="{CB04F107-FE97-4B10-BF72-D2DD060A8C31}"/>
-    <hyperlink ref="A331" r:id="rId652" display="https://www.addact.net/sitemap" xr:uid="{B1FA14DE-7DE1-4F92-9F48-0C5A69AD7112}"/>
-    <hyperlink ref="B331" r:id="rId653" display="https://www.addact.net/sitemap" xr:uid="{9589AA99-241D-42CD-9BE2-1DD16ECC27CC}"/>
-    <hyperlink ref="A332" r:id="rId654" display="https://www.addact.net/fresher-software-developer-dot-net" xr:uid="{71AFFEC6-C147-4AE3-B462-36DA7EDFF927}"/>
-    <hyperlink ref="A333" r:id="rId655" display="https://www.addact.net/work" xr:uid="{5F59B6C8-6E61-4F68-929B-D6AE44AADEB2}"/>
-    <hyperlink ref="B333" r:id="rId656" display="https://www.addact.net/portfolio" xr:uid="{600F57E2-F080-4665-B39A-B1CDB87B7E46}"/>
+    <hyperlink ref="A298" r:id="rId593" display="https://www.addact.net/news/press-releases/addact-team-members-win-sitecore-most-valued-professional-award" xr:uid="{41869E78-D4DD-4A01-8018-5632F573D195}"/>
+    <hyperlink ref="B298" r:id="rId594" display="https://www.addact.net/press-releases/addact-team-members-win-sitecore-most-valued-professional-award" xr:uid="{5F73D9C2-7873-48EB-AC13-5E6FA665E513}"/>
+    <hyperlink ref="A299" r:id="rId595" display="https://www.addact.net/news/press-releases/addact-launches-addxp-a-digital-experience-company" xr:uid="{71EF3A32-A1DF-4BD2-B97A-82B9CF9916FB}"/>
+    <hyperlink ref="B299" r:id="rId596" display="https://www.addact.net/press-releases/addact-launches-addxp-a-digital-experience-company" xr:uid="{2B8F13B1-A874-483A-8209-25C0C3BBD5A4}"/>
+    <hyperlink ref="A300" r:id="rId597" display="https://www.addact.net/news/press-releases/addact-achieves-iso-certification-for-quality-management-system-and-information-security-management-system" xr:uid="{4DDE7435-7E06-4424-8945-159A5AC24AED}"/>
+    <hyperlink ref="B300" r:id="rId598" display="https://www.addact.net/press-releases/addact-achieves-iso-certification-for-quality-management-system-and-information-security-management-system" xr:uid="{CB71038F-3FC0-464A-81BB-743AE2226D89}"/>
+    <hyperlink ref="A301" r:id="rId599" display="https://www.addact.net/services/sitecore-module-development" xr:uid="{43E0337B-19E3-4E82-B453-D77992D8C042}"/>
+    <hyperlink ref="B301" r:id="rId600" display="https://www.addact.net/" xr:uid="{0BC7393D-7A66-4D39-BDDD-111503C454C5}"/>
+    <hyperlink ref="A302" r:id="rId601" display="https://www.addact.net/services/sitecore-content-hub-development" xr:uid="{F7361A3F-1036-4462-A60F-59CC7A06170A}"/>
+    <hyperlink ref="B302" r:id="rId602" display="https://www.addact.net/" xr:uid="{9F85E195-B52A-4D6C-ADC4-003CE214FDD5}"/>
+    <hyperlink ref="A303" r:id="rId603" display="https://www.addact.net/services/sitecore-cdp" xr:uid="{6E60F1DE-59EC-47ED-8D78-2AFC4CC3C72B}"/>
+    <hyperlink ref="B303" r:id="rId604" display="https://www.addact.net/" xr:uid="{E45C9C01-E913-478A-B389-628349A7049E}"/>
+    <hyperlink ref="A304" r:id="rId605" display="https://www.addact.net/services/sitecore-send" xr:uid="{37886053-D810-41FA-AD6E-7A2A69FE9237}"/>
+    <hyperlink ref="B304" r:id="rId606" display="https://www.addact.net/" xr:uid="{3D1D65BE-8765-48E6-85F3-980FD6885A9A}"/>
+    <hyperlink ref="A305" r:id="rId607" display="https://www.addact.net/services/sitecore-cmp-and-mrm" xr:uid="{5524DAAB-DD1A-44AA-BB53-137110141D91}"/>
+    <hyperlink ref="B305" r:id="rId608" display="https://www.addact.net/" xr:uid="{590D821A-22A8-42F3-9507-CE12EFAC3414}"/>
+    <hyperlink ref="A306" r:id="rId609" display="https://www.addact.net/ordercloud" xr:uid="{FC161FFA-ADF3-49D4-861B-3DB818A2AE96}"/>
+    <hyperlink ref="B306" r:id="rId610" display="https://www.addact.net/" xr:uid="{4A5F8415-F36F-4CFF-835A-7E4D8D2612CB}"/>
+    <hyperlink ref="A307" r:id="rId611" display="https://www.addact.net/services/sitecore-discover" xr:uid="{B7405909-5B4F-48F4-A197-1213189EAF70}"/>
+    <hyperlink ref="B307" r:id="rId612" display="https://www.addact.net/" xr:uid="{7C7F1617-32D5-4488-8BBB-8A2CE6156AFA}"/>
+    <hyperlink ref="A308" r:id="rId613" display="https://www.addact.net/services/sitecore-devops-azure-aws" xr:uid="{689DA6F0-C594-46A8-88FB-33316960C094}"/>
+    <hyperlink ref="B308" r:id="rId614" display="https://www.addact.net/" xr:uid="{FBFC7B79-39AE-405C-8A0D-B99958DAC2EB}"/>
+    <hyperlink ref="A309" r:id="rId615" display="https://www.addact.net/ui-ux-sitecore-sxa" xr:uid="{1BCA8A14-67BE-433E-9678-D13B2F32AE65}"/>
+    <hyperlink ref="B309" r:id="rId616" display="https://www.addact.net/" xr:uid="{626045DB-D146-4337-9E8C-D0A7473EF4FE}"/>
+    <hyperlink ref="A310" r:id="rId617" display="https://www.addact.net/sitecore-digital-marketing" xr:uid="{30E954D1-24D6-4845-B68B-1488A57D180B}"/>
+    <hyperlink ref="B310" r:id="rId618" display="https://www.addact.net/" xr:uid="{1A6023BA-1381-4EB2-BCD3-A7B9D12A9FF1}"/>
+    <hyperlink ref="A311" r:id="rId619" display="https://www.addact.net/our-story" xr:uid="{D6FDA075-46C5-418C-B6B8-5B8454245093}"/>
+    <hyperlink ref="B311" r:id="rId620" display="https://www.addact.net/about-us" xr:uid="{E9CA7F96-7ED1-4C8F-88A0-CD145260120B}"/>
+    <hyperlink ref="A312" r:id="rId621" display="https://www.addact.net/b2b-technology-partner" xr:uid="{A7620173-41F0-4192-BAC8-2E15C7C45111}"/>
+    <hyperlink ref="B312" r:id="rId622" display="https://www.addact.net/" xr:uid="{774002E6-EA2C-46CA-A457-66A021BBED1D}"/>
+    <hyperlink ref="A313" r:id="rId623" display="https://www.addact.net/things-to-know-about-sitecore-discover-webinar" xr:uid="{6E276BBB-D7B9-4638-9EA9-70645EB3736E}"/>
+    <hyperlink ref="B313" r:id="rId624" display="https://www.addact.net/webinar/things-to-know-about-sitecore-discover-webinar" xr:uid="{D53F354D-8144-4913-AD7C-B155CF42D3E5}"/>
+    <hyperlink ref="A314" r:id="rId625" display="https://www.addact.net/technical-overview-of-sitecore-discover" xr:uid="{60CACD52-04EF-4587-9106-340C54DF47C3}"/>
+    <hyperlink ref="B314" r:id="rId626" display="https://www.addact.net/webinar/technical-overview-of-sitecore-discover" xr:uid="{F9E41BBB-2EBA-4BA7-A9F7-7C0CAD9729C1}"/>
+    <hyperlink ref="A315" r:id="rId627" display="https://www.addact.net/sitecore-discover-implementation-through-sdk-webinar" xr:uid="{8C9C1CB1-8107-447F-B9E9-89BD50459854}"/>
+    <hyperlink ref="B315" r:id="rId628" display="https://www.addact.net/webinar/sitecore-discover-implementation-through-sdk" xr:uid="{A3E78CB6-FD7A-461F-AC6F-FCF50A9C8C55}"/>
+    <hyperlink ref="A316" r:id="rId629" display="https://www.addact.net/business-development-manager-hire" xr:uid="{3D86D21E-1D94-45D0-8A38-9F3A77F007D6}"/>
+    <hyperlink ref="A317" r:id="rId630" display="https://www.addact.net/business-development-lead-generator-specialist-hire" xr:uid="{BF80580F-9F20-4AAA-8B44-06EB7916BE52}"/>
+    <hyperlink ref="A318" r:id="rId631" display="https://www.addact.net/content-writer" xr:uid="{EB7D6A71-2DCB-4346-BC4A-E1EE319C0F94}"/>
+    <hyperlink ref="A319" r:id="rId632" display="https://www.addact.net/sitecore-developer" xr:uid="{AE3A7535-5E50-4FCA-ACC6-F9BE751FE108}"/>
+    <hyperlink ref="A320" r:id="rId633" display="https://www.addact.net/dot-net-developer" xr:uid="{2E591E5C-E482-4B88-9A8E-CE6AAA504048}"/>
+    <hyperlink ref="A321" r:id="rId634" display="https://www.addact.net/umbracoco-developer" xr:uid="{34C5E714-8347-4EB7-A01F-239B3F4F4D7E}"/>
+    <hyperlink ref="A322" r:id="rId635" display="https://www.addact.net/terms-of-use" xr:uid="{CB04F107-FE97-4B10-BF72-D2DD060A8C31}"/>
+    <hyperlink ref="A323" r:id="rId636" display="https://www.addact.net/sitemap" xr:uid="{B1FA14DE-7DE1-4F92-9F48-0C5A69AD7112}"/>
+    <hyperlink ref="B323" r:id="rId637" display="https://www.addact.net/sitemap" xr:uid="{9589AA99-241D-42CD-9BE2-1DD16ECC27CC}"/>
+    <hyperlink ref="A324" r:id="rId638" display="https://www.addact.net/fresher-software-developer-dot-net" xr:uid="{71AFFEC6-C147-4AE3-B462-36DA7EDFF927}"/>
+    <hyperlink ref="A325" r:id="rId639" display="https://www.addact.net/work" xr:uid="{5F59B6C8-6E61-4F68-929B-D6AE44AADEB2}"/>
+    <hyperlink ref="B325" r:id="rId640" display="https://www.addact.net/portfolio" xr:uid="{600F57E2-F080-4665-B39A-B1CDB87B7E46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DBFDBA-CE0E-4C30-946A-7691AB067838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BA357D-DDEA-47F6-8891-1BF9B177C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="629">
   <si>
     <t>source</t>
   </si>
@@ -1917,6 +1917,12 @@
   </si>
   <si>
     <t>/portfolio</t>
+  </si>
+  <si>
+    <t>/addact-next-chapter-reveal</t>
+  </si>
+  <si>
+    <t>/blogs/addact-next-chapter-reveal</t>
   </si>
 </sst>
 </file>
@@ -2340,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298:XFD304"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A333" sqref="A333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5925,6 +5931,17 @@
         <v>626</v>
       </c>
       <c r="C325" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6570,6 +6587,8 @@
     <hyperlink ref="A324" r:id="rId638" display="https://www.addact.net/fresher-software-developer-dot-net" xr:uid="{71AFFEC6-C147-4AE3-B462-36DA7EDFF927}"/>
     <hyperlink ref="A325" r:id="rId639" display="https://www.addact.net/work" xr:uid="{5F59B6C8-6E61-4F68-929B-D6AE44AADEB2}"/>
     <hyperlink ref="B325" r:id="rId640" display="https://www.addact.net/portfolio" xr:uid="{600F57E2-F080-4665-B39A-B1CDB87B7E46}"/>
+    <hyperlink ref="A326" r:id="rId641" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{2CF7038E-BEAD-45CC-9EC7-70759BDFED54}"/>
+    <hyperlink ref="B326" r:id="rId642" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{56763CDC-C09B-4577-AE6B-B0BAF19DA6B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BA357D-DDEA-47F6-8891-1BF9B177C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2C2300-85EB-4990-B6F8-8DE6F6F63CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="628">
   <si>
     <t>source</t>
   </si>
@@ -1902,9 +1902,6 @@
   </si>
   <si>
     <t>/umbracoco-developer</t>
-  </si>
-  <si>
-    <t>/terms-of-use</t>
   </si>
   <si>
     <t xml:space="preserve">/sitemap </t>
@@ -2346,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
-  <dimension ref="A1:C326"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5894,8 +5891,8 @@
       <c r="A322" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B322" s="4" t="s">
-        <v>598</v>
+      <c r="B322" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>3</v>
@@ -5905,8 +5902,8 @@
       <c r="A323" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B323" s="3" t="s">
-        <v>623</v>
+      <c r="B323" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>3</v>
@@ -5916,8 +5913,8 @@
       <c r="A324" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B324" s="4" t="s">
-        <v>598</v>
+      <c r="B324" s="3" t="s">
+        <v>625</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>3</v>
@@ -5925,23 +5922,12 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C326" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6581,14 +6567,13 @@
     <hyperlink ref="A319" r:id="rId632" display="https://www.addact.net/sitecore-developer" xr:uid="{AE3A7535-5E50-4FCA-ACC6-F9BE751FE108}"/>
     <hyperlink ref="A320" r:id="rId633" display="https://www.addact.net/dot-net-developer" xr:uid="{2E591E5C-E482-4B88-9A8E-CE6AAA504048}"/>
     <hyperlink ref="A321" r:id="rId634" display="https://www.addact.net/umbracoco-developer" xr:uid="{34C5E714-8347-4EB7-A01F-239B3F4F4D7E}"/>
-    <hyperlink ref="A322" r:id="rId635" display="https://www.addact.net/terms-of-use" xr:uid="{CB04F107-FE97-4B10-BF72-D2DD060A8C31}"/>
-    <hyperlink ref="A323" r:id="rId636" display="https://www.addact.net/sitemap" xr:uid="{B1FA14DE-7DE1-4F92-9F48-0C5A69AD7112}"/>
-    <hyperlink ref="B323" r:id="rId637" display="https://www.addact.net/sitemap" xr:uid="{9589AA99-241D-42CD-9BE2-1DD16ECC27CC}"/>
-    <hyperlink ref="A324" r:id="rId638" display="https://www.addact.net/fresher-software-developer-dot-net" xr:uid="{71AFFEC6-C147-4AE3-B462-36DA7EDFF927}"/>
-    <hyperlink ref="A325" r:id="rId639" display="https://www.addact.net/work" xr:uid="{5F59B6C8-6E61-4F68-929B-D6AE44AADEB2}"/>
-    <hyperlink ref="B325" r:id="rId640" display="https://www.addact.net/portfolio" xr:uid="{600F57E2-F080-4665-B39A-B1CDB87B7E46}"/>
-    <hyperlink ref="A326" r:id="rId641" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{2CF7038E-BEAD-45CC-9EC7-70759BDFED54}"/>
-    <hyperlink ref="B326" r:id="rId642" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{56763CDC-C09B-4577-AE6B-B0BAF19DA6B2}"/>
+    <hyperlink ref="A322" r:id="rId635" display="https://www.addact.net/sitemap" xr:uid="{B1FA14DE-7DE1-4F92-9F48-0C5A69AD7112}"/>
+    <hyperlink ref="B322" r:id="rId636" display="https://www.addact.net/sitemap" xr:uid="{9589AA99-241D-42CD-9BE2-1DD16ECC27CC}"/>
+    <hyperlink ref="A323" r:id="rId637" display="https://www.addact.net/fresher-software-developer-dot-net" xr:uid="{71AFFEC6-C147-4AE3-B462-36DA7EDFF927}"/>
+    <hyperlink ref="A324" r:id="rId638" display="https://www.addact.net/work" xr:uid="{5F59B6C8-6E61-4F68-929B-D6AE44AADEB2}"/>
+    <hyperlink ref="B324" r:id="rId639" display="https://www.addact.net/portfolio" xr:uid="{600F57E2-F080-4665-B39A-B1CDB87B7E46}"/>
+    <hyperlink ref="A325" r:id="rId640" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{2CF7038E-BEAD-45CC-9EC7-70759BDFED54}"/>
+    <hyperlink ref="B325" r:id="rId641" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{56763CDC-C09B-4577-AE6B-B0BAF19DA6B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2C2300-85EB-4990-B6F8-8DE6F6F63CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF8F42-64CA-45E6-84C0-8A79B0152B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -1832,9 +1832,6 @@
     <t>/services/sitecore-module-development</t>
   </si>
   <si>
-    <t xml:space="preserve">/ </t>
-  </si>
-  <si>
     <t>/services/sitecore-content-hub-development</t>
   </si>
   <si>
@@ -1920,6 +1917,9 @@
   </si>
   <si>
     <t>/blogs/addact-next-chapter-reveal</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -2345,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
   <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5661,7 +5661,7 @@
         <v>597</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>3</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>3</v>
@@ -5680,10 +5680,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>3</v>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>3</v>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>3</v>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>3</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>3</v>
@@ -5735,10 +5735,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>3</v>
@@ -5746,10 +5746,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>3</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>609</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>3</v>
@@ -5779,10 +5779,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>3</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>582</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>3</v>
@@ -5812,10 +5812,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>3</v>
@@ -5823,10 +5823,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>3</v>
@@ -5834,10 +5834,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>3</v>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>3</v>
@@ -5856,10 +5856,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>3</v>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>3</v>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>3</v>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>3</v>
@@ -5900,10 +5900,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>3</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>3</v>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>3</v>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Addact-Revamp\addact\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Addact-Revamp\addact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF8F42-64CA-45E6-84C0-8A79B0152B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C672DA5-AF58-4C0F-8C4D-C00EAFE09370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="631">
   <si>
     <t>source</t>
   </si>
@@ -143,9 +143,6 @@
     <t>/how-to-migrate-from-a-legacy-cms-to-sitecore-challenges-&amp;-solutions</t>
   </si>
   <si>
-    <t>/blogs/how-to-migrate-from-a-legacy-cms-to-sitecore-challenges-&amp;-solutions</t>
-  </si>
-  <si>
     <t>/sitecore-xm-cloud-pricing-and-key-insights</t>
   </si>
   <si>
@@ -1379,9 +1376,6 @@
     <t>/increase-customer-loyalty-&amp;-trust-using-sitecore-cdp</t>
   </si>
   <si>
-    <t>/blogs/increase-customer-loyalty-&amp;-trust-using-sitecore-cdp</t>
-  </si>
-  <si>
     <t>/everything-to-know-about-a-customer-data-platform</t>
   </si>
   <si>
@@ -1920,6 +1914,21 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>/blogs/increase-customer-loyalty-and-trust-using-sitecore-cdp</t>
+  </si>
+  <si>
+    <t>/project-cost-estimator</t>
+  </si>
+  <si>
+    <t>/role-of-sitecore-cdp-customer-experience-management</t>
+  </si>
+  <si>
+    <t>/blogs/role-of-sitecore-cdp-customer-experience-management</t>
+  </si>
+  <si>
+    <t>/blogs/how-to-migrate-from-a-legacy-cms-to-sitecore-challenges-and-solutions</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2007,6 +2016,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2343,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B329" sqref="B329"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="A333" sqref="A333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2482,7 +2497,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>630</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>3</v>
@@ -2490,10 +2505,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>3</v>
@@ -2501,10 +2516,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>3</v>
@@ -2512,10 +2527,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>3</v>
@@ -2523,10 +2538,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>3</v>
@@ -2534,10 +2549,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>3</v>
@@ -2545,10 +2560,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>3</v>
@@ -2556,10 +2571,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>3</v>
@@ -2567,10 +2582,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>3</v>
@@ -2578,10 +2593,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>3</v>
@@ -2589,10 +2604,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>3</v>
@@ -2600,10 +2615,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>3</v>
@@ -2611,10 +2626,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>3</v>
@@ -2622,10 +2637,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>3</v>
@@ -2633,10 +2648,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>3</v>
@@ -2644,10 +2659,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>3</v>
@@ -2655,10 +2670,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>3</v>
@@ -2666,10 +2681,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>3</v>
@@ -2677,10 +2692,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>3</v>
@@ -2688,10 +2703,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>3</v>
@@ -2699,10 +2714,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>3</v>
@@ -2710,10 +2725,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>3</v>
@@ -2721,10 +2736,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>3</v>
@@ -2732,10 +2747,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>3</v>
@@ -2743,10 +2758,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>3</v>
@@ -2754,10 +2769,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>3</v>
@@ -2765,10 +2780,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>3</v>
@@ -2776,10 +2791,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>3</v>
@@ -2787,10 +2802,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>3</v>
@@ -2798,10 +2813,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>3</v>
@@ -2809,10 +2824,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>3</v>
@@ -2820,10 +2835,10 @@
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>3</v>
@@ -2831,10 +2846,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>3</v>
@@ -2842,10 +2857,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>3</v>
@@ -2853,10 +2868,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>3</v>
@@ -2864,10 +2879,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>3</v>
@@ -2875,10 +2890,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>3</v>
@@ -2886,10 +2901,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>3</v>
@@ -2897,10 +2912,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>3</v>
@@ -2908,10 +2923,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>3</v>
@@ -2919,10 +2934,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>3</v>
@@ -2930,10 +2945,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>3</v>
@@ -2941,10 +2956,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>3</v>
@@ -2952,10 +2967,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>3</v>
@@ -2963,10 +2978,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>3</v>
@@ -2974,10 +2989,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>3</v>
@@ -2985,10 +3000,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>3</v>
@@ -2996,10 +3011,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>3</v>
@@ -3007,10 +3022,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>3</v>
@@ -3018,10 +3033,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>3</v>
@@ -3029,10 +3044,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>3</v>
@@ -3040,10 +3055,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>3</v>
@@ -3051,10 +3066,10 @@
     </row>
     <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>3</v>
@@ -3062,10 +3077,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>3</v>
@@ -3073,10 +3088,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>3</v>
@@ -3084,10 +3099,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>3</v>
@@ -3095,10 +3110,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>3</v>
@@ -3106,10 +3121,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>3</v>
@@ -3117,10 +3132,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>3</v>
@@ -3128,10 +3143,10 @@
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>3</v>
@@ -3139,10 +3154,10 @@
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>3</v>
@@ -3150,10 +3165,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>3</v>
@@ -3161,10 +3176,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>3</v>
@@ -3172,10 +3187,10 @@
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>3</v>
@@ -3183,10 +3198,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>3</v>
@@ -3194,10 +3209,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>3</v>
@@ -3205,10 +3220,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>3</v>
@@ -3216,10 +3231,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>3</v>
@@ -3227,10 +3242,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>3</v>
@@ -3238,10 +3253,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>3</v>
@@ -3249,10 +3264,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>3</v>
@@ -3260,10 +3275,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>3</v>
@@ -3271,10 +3286,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>3</v>
@@ -3282,10 +3297,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>3</v>
@@ -3293,10 +3308,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>3</v>
@@ -3304,10 +3319,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>3</v>
@@ -3315,10 +3330,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>3</v>
@@ -3326,10 +3341,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>3</v>
@@ -3337,10 +3352,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>3</v>
@@ -3348,10 +3363,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>3</v>
@@ -3359,10 +3374,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>3</v>
@@ -3370,10 +3385,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>3</v>
@@ -3381,10 +3396,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>3</v>
@@ -3392,10 +3407,10 @@
     </row>
     <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>3</v>
@@ -3403,10 +3418,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>3</v>
@@ -3414,10 +3429,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>3</v>
@@ -3425,10 +3440,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>3</v>
@@ -3436,10 +3451,10 @@
     </row>
     <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>3</v>
@@ -3447,10 +3462,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>3</v>
@@ -3458,10 +3473,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>3</v>
@@ -3469,10 +3484,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>3</v>
@@ -3480,10 +3495,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>3</v>
@@ -3491,10 +3506,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>3</v>
@@ -3502,10 +3517,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>3</v>
@@ -3513,10 +3528,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>3</v>
@@ -3524,10 +3539,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>3</v>
@@ -3535,10 +3550,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>3</v>
@@ -3546,10 +3561,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>3</v>
@@ -3557,10 +3572,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>3</v>
@@ -3568,10 +3583,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>3</v>
@@ -3579,10 +3594,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>3</v>
@@ -3590,10 +3605,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
@@ -3601,10 +3616,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>3</v>
@@ -3612,10 +3627,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>3</v>
@@ -3623,10 +3638,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>3</v>
@@ -3634,10 +3649,10 @@
     </row>
     <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>3</v>
@@ -3645,10 +3660,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>3</v>
@@ -3656,10 +3671,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>3</v>
@@ -3667,10 +3682,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>3</v>
@@ -3678,10 +3693,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>3</v>
@@ -3689,10 +3704,10 @@
     </row>
     <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>3</v>
@@ -3700,10 +3715,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>3</v>
@@ -3711,10 +3726,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>3</v>
@@ -3722,10 +3737,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>3</v>
@@ -3733,10 +3748,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>3</v>
@@ -3744,10 +3759,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>3</v>
@@ -3755,10 +3770,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>3</v>
@@ -3766,10 +3781,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>3</v>
@@ -3777,10 +3792,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>3</v>
@@ -3788,10 +3803,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>3</v>
@@ -3799,10 +3814,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>3</v>
@@ -3810,10 +3825,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>3</v>
@@ -3821,10 +3836,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>3</v>
@@ -3832,10 +3847,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>3</v>
@@ -3843,10 +3858,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>3</v>
@@ -3854,10 +3869,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>3</v>
@@ -3865,10 +3880,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>3</v>
@@ -3876,10 +3891,10 @@
     </row>
     <row r="139" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>3</v>
@@ -3887,10 +3902,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>3</v>
@@ -3898,10 +3913,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>3</v>
@@ -3909,10 +3924,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>3</v>
@@ -3920,10 +3935,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>3</v>
@@ -3931,10 +3946,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>3</v>
@@ -3942,10 +3957,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>3</v>
@@ -3953,10 +3968,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>3</v>
@@ -3964,10 +3979,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>3</v>
@@ -3975,10 +3990,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>3</v>
@@ -3986,10 +4001,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>3</v>
@@ -3997,10 +4012,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>3</v>
@@ -4008,10 +4023,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>3</v>
@@ -4019,10 +4034,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>3</v>
@@ -4030,10 +4045,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>3</v>
@@ -4041,10 +4056,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>3</v>
@@ -4052,10 +4067,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>3</v>
@@ -4063,10 +4078,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>3</v>
@@ -4074,10 +4089,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>3</v>
@@ -4085,10 +4100,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>3</v>
@@ -4096,10 +4111,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>3</v>
@@ -4107,10 +4122,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>3</v>
@@ -4118,10 +4133,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>3</v>
@@ -4129,10 +4144,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>3</v>
@@ -4140,10 +4155,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>3</v>
@@ -4151,10 +4166,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>3</v>
@@ -4162,10 +4177,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>3</v>
@@ -4173,10 +4188,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>3</v>
@@ -4184,10 +4199,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>3</v>
@@ -4195,10 +4210,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>3</v>
@@ -4206,10 +4221,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>3</v>
@@ -4217,10 +4232,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>3</v>
@@ -4228,10 +4243,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>3</v>
@@ -4239,10 +4254,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>3</v>
@@ -4250,10 +4265,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>3</v>
@@ -4261,10 +4276,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>3</v>
@@ -4272,10 +4287,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>3</v>
@@ -4283,10 +4298,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>3</v>
@@ -4294,10 +4309,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>3</v>
@@ -4305,10 +4320,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>3</v>
@@ -4316,10 +4331,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>3</v>
@@ -4327,10 +4342,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>3</v>
@@ -4338,10 +4353,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>3</v>
@@ -4349,10 +4364,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>3</v>
@@ -4360,10 +4375,10 @@
     </row>
     <row r="183" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>3</v>
@@ -4371,10 +4386,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>3</v>
@@ -4382,10 +4397,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>3</v>
@@ -4393,10 +4408,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>3</v>
@@ -4404,10 +4419,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>3</v>
@@ -4415,10 +4430,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>3</v>
@@ -4426,10 +4441,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>3</v>
@@ -4437,10 +4452,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>3</v>
@@ -4448,10 +4463,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>3</v>
@@ -4459,10 +4474,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>3</v>
@@ -4470,10 +4485,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>3</v>
@@ -4481,10 +4496,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>3</v>
@@ -4492,10 +4507,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>3</v>
@@ -4503,10 +4518,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>3</v>
@@ -4514,10 +4529,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>3</v>
@@ -4525,10 +4540,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>3</v>
@@ -4536,10 +4551,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>3</v>
@@ -4547,10 +4562,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>3</v>
@@ -4558,10 +4573,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>3</v>
@@ -4569,10 +4584,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>3</v>
@@ -4580,10 +4595,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>3</v>
@@ -4591,10 +4606,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>3</v>
@@ -4602,10 +4617,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>3</v>
@@ -4613,10 +4628,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>3</v>
@@ -4624,10 +4639,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>3</v>
@@ -4635,10 +4650,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>3</v>
@@ -4646,10 +4661,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>3</v>
@@ -4657,10 +4672,10 @@
     </row>
     <row r="210" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>3</v>
@@ -4668,10 +4683,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>3</v>
@@ -4679,10 +4694,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>3</v>
@@ -4690,10 +4705,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>3</v>
@@ -4701,10 +4716,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>3</v>
@@ -4712,10 +4727,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>3</v>
@@ -4723,10 +4738,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>3</v>
@@ -4734,10 +4749,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>3</v>
@@ -4745,10 +4760,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>447</v>
+        <v>626</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>3</v>
@@ -4756,10 +4771,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>3</v>
@@ -4767,10 +4782,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>3</v>
@@ -4778,10 +4793,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>3</v>
@@ -4789,10 +4804,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>3</v>
@@ -4800,10 +4815,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>3</v>
@@ -4811,10 +4826,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>3</v>
@@ -4822,10 +4837,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>3</v>
@@ -4833,10 +4848,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>3</v>
@@ -4844,10 +4859,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>3</v>
@@ -4855,10 +4870,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>3</v>
@@ -4866,10 +4881,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>3</v>
@@ -4877,10 +4892,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>3</v>
@@ -4888,10 +4903,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>3</v>
@@ -4899,10 +4914,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>3</v>
@@ -4910,10 +4925,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>3</v>
@@ -4921,10 +4936,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>3</v>
@@ -4932,10 +4947,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>3</v>
@@ -4943,10 +4958,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>3</v>
@@ -4954,10 +4969,10 @@
     </row>
     <row r="237" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>3</v>
@@ -4965,10 +4980,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>3</v>
@@ -4976,10 +4991,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>3</v>
@@ -4987,10 +5002,10 @@
     </row>
     <row r="240" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>3</v>
@@ -4998,10 +5013,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>3</v>
@@ -5009,10 +5024,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>3</v>
@@ -5020,10 +5035,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>3</v>
@@ -5031,10 +5046,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>3</v>
@@ -5042,10 +5057,10 @@
     </row>
     <row r="245" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>3</v>
@@ -5053,10 +5068,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>3</v>
@@ -5064,10 +5079,10 @@
     </row>
     <row r="247" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>3</v>
@@ -5075,10 +5090,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>3</v>
@@ -5086,10 +5101,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>3</v>
@@ -5097,10 +5112,10 @@
     </row>
     <row r="250" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>3</v>
@@ -5108,10 +5123,10 @@
     </row>
     <row r="251" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>3</v>
@@ -5119,10 +5134,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>3</v>
@@ -5130,10 +5145,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>3</v>
@@ -5141,10 +5156,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>3</v>
@@ -5152,10 +5167,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>3</v>
@@ -5163,10 +5178,10 @@
     </row>
     <row r="256" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>3</v>
@@ -5174,10 +5189,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>3</v>
@@ -5185,10 +5200,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>3</v>
@@ -5196,10 +5211,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>3</v>
@@ -5207,10 +5222,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>3</v>
@@ -5218,10 +5233,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>3</v>
@@ -5229,10 +5244,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>3</v>
@@ -5240,10 +5255,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>3</v>
@@ -5251,10 +5266,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>3</v>
@@ -5262,10 +5277,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>3</v>
@@ -5273,10 +5288,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>3</v>
@@ -5284,10 +5299,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>3</v>
@@ -5295,10 +5310,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>3</v>
@@ -5306,10 +5321,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>3</v>
@@ -5317,10 +5332,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>3</v>
@@ -5328,10 +5343,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>3</v>
@@ -5339,10 +5354,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>3</v>
@@ -5350,10 +5365,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>3</v>
@@ -5361,10 +5376,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>3</v>
@@ -5372,10 +5387,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>3</v>
@@ -5383,10 +5398,10 @@
     </row>
     <row r="276" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>3</v>
@@ -5394,10 +5409,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>3</v>
@@ -5405,10 +5420,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>3</v>
@@ -5416,10 +5431,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>3</v>
@@ -5427,10 +5442,10 @@
     </row>
     <row r="280" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>3</v>
@@ -5438,10 +5453,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>3</v>
@@ -5449,10 +5464,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>3</v>
@@ -5460,10 +5475,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>3</v>
@@ -5471,10 +5486,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>3</v>
@@ -5482,10 +5497,10 @@
     </row>
     <row r="285" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>3</v>
@@ -5496,7 +5511,7 @@
         <v>7</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>3</v>
@@ -5518,7 +5533,7 @@
         <v>11</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>3</v>
@@ -5529,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>3</v>
@@ -5551,7 +5566,7 @@
         <v>5</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>3</v>
@@ -5562,7 +5577,7 @@
         <v>10</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>3</v>
@@ -5573,7 +5588,7 @@
         <v>8</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>3</v>
@@ -5581,10 +5596,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>3</v>
@@ -5592,10 +5607,10 @@
     </row>
     <row r="295" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>3</v>
@@ -5603,10 +5618,10 @@
     </row>
     <row r="296" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>3</v>
@@ -5614,10 +5629,10 @@
     </row>
     <row r="297" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>3</v>
@@ -5625,10 +5640,10 @@
     </row>
     <row r="298" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>3</v>
@@ -5636,10 +5651,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>3</v>
@@ -5647,10 +5662,10 @@
     </row>
     <row r="300" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>3</v>
@@ -5658,10 +5673,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>3</v>
@@ -5669,10 +5684,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>3</v>
@@ -5680,10 +5695,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>3</v>
@@ -5691,10 +5706,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>3</v>
@@ -5702,10 +5717,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>3</v>
@@ -5713,10 +5728,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>3</v>
@@ -5724,10 +5739,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>3</v>
@@ -5735,10 +5750,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>3</v>
@@ -5746,10 +5761,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>3</v>
@@ -5757,10 +5772,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>3</v>
@@ -5768,10 +5783,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>3</v>
@@ -5779,10 +5794,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>3</v>
@@ -5790,10 +5805,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>3</v>
@@ -5801,10 +5816,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>3</v>
@@ -5812,10 +5827,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>3</v>
@@ -5823,10 +5838,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>3</v>
@@ -5834,10 +5849,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>3</v>
@@ -5845,10 +5860,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>3</v>
@@ -5856,10 +5871,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>3</v>
@@ -5867,10 +5882,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>3</v>
@@ -5878,10 +5893,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>3</v>
@@ -5889,10 +5904,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>3</v>
@@ -5900,10 +5915,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>3</v>
@@ -5911,10 +5926,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>3</v>
@@ -5922,12 +5937,78 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B326" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="C326" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B329" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="C325" s="6" t="s">
+      <c r="C329" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C331" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6574,6 +6655,11 @@
     <hyperlink ref="B324" r:id="rId639" display="https://www.addact.net/portfolio" xr:uid="{600F57E2-F080-4665-B39A-B1CDB87B7E46}"/>
     <hyperlink ref="A325" r:id="rId640" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{2CF7038E-BEAD-45CC-9EC7-70759BDFED54}"/>
     <hyperlink ref="B325" r:id="rId641" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{56763CDC-C09B-4577-AE6B-B0BAF19DA6B2}"/>
+    <hyperlink ref="A326" r:id="rId642" tooltip="https://www.addact.net/fresher-software-developer-dot-net" display="https://www.addact.net/fresher-software-developer-dot-net" xr:uid="{20B19019-3064-4B61-9F3A-3DA50694ED6F}"/>
+    <hyperlink ref="A327" r:id="rId643" tooltip="https://www.addact.net/work" display="https://www.addact.net/work" xr:uid="{0D2B1AB2-9964-47ED-8BAA-1DFC837813EE}"/>
+    <hyperlink ref="B327" r:id="rId644" tooltip="https://www.addact.net/portfolio" display="https://www.addact.net/portfolio" xr:uid="{5B40D3C6-D44A-4551-86D7-F50A5C3526A1}"/>
+    <hyperlink ref="A328" r:id="rId645" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{93DAE1B6-838E-4B70-B21B-9BAAECE8FFC8}"/>
+    <hyperlink ref="B328" r:id="rId646" tooltip="https://www.addact.net/addact-next-chapter-reveal" display="https://www.addact.net/addact-next-chapter-reveal" xr:uid="{6A8CD1F8-1B5E-493A-B705-EEB97D336605}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addact/public/redirects.xlsx
+++ b/addact/public/redirects.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>source</t>
   </si>
@@ -2361,17 +2361,17 @@
   <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333"/>
+      <selection activeCell="C331" sqref="C331" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="107.44140625" customWidth="1"/>
     <col min="2" max="2" width="83.109375" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="8" t="s">
         <v>61</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="8" t="s">
         <v>63</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="8" t="s">
         <v>65</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="8" t="s">
         <v>67</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="8" t="s">
         <v>69</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="8" t="s">
         <v>71</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="8" t="s">
         <v>73</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="8" t="s">
         <v>75</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="8" t="s">
         <v>79</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="8" t="s">
         <v>81</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="8" t="s">
         <v>83</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="8" t="s">
         <v>85</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="8" t="s">
         <v>87</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="8" t="s">
         <v>89</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="8" t="s">
         <v>91</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="8" t="s">
         <v>93</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" ht="27">
       <c r="A43" s="9" t="s">
         <v>95</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="8" t="s">
         <v>97</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="8" t="s">
         <v>99</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="8" t="s">
         <v>101</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="8" t="s">
         <v>103</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="8" t="s">
         <v>105</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="8" t="s">
         <v>107</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="8" t="s">
         <v>109</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="8" t="s">
         <v>111</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="8" t="s">
         <v>113</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="8" t="s">
         <v>115</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="8" t="s">
         <v>117</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="8" t="s">
         <v>119</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="8" t="s">
         <v>121</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="8" t="s">
         <v>123</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="8" t="s">
         <v>125</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="8" t="s">
         <v>127</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="8" t="s">
         <v>129</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="8" t="s">
         <v>131</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="8" t="s">
         <v>133</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="8" t="s">
         <v>135</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" ht="27">
       <c r="A64" s="9" t="s">
         <v>137</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="8" t="s">
         <v>139</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="8" t="s">
         <v>141</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="8" t="s">
         <v>143</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="8" t="s">
         <v>145</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="8" t="s">
         <v>147</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70" s="8" t="s">
         <v>149</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" ht="27">
       <c r="A71" s="9" t="s">
         <v>151</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" ht="27">
       <c r="A72" s="9" t="s">
         <v>153</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73" s="8" t="s">
         <v>155</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74" s="8" t="s">
         <v>157</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" ht="27">
       <c r="A75" s="9" t="s">
         <v>159</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76" s="8" t="s">
         <v>161</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77" s="8" t="s">
         <v>163</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78" s="8" t="s">
         <v>165</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79" s="8" t="s">
         <v>167</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80" s="8" t="s">
         <v>169</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81" s="8" t="s">
         <v>171</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82" s="8" t="s">
         <v>173</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83" s="8" t="s">
         <v>175</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84" s="8" t="s">
         <v>177</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85" s="8" t="s">
         <v>179</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86" s="8" t="s">
         <v>181</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87">
       <c r="A87" s="8" t="s">
         <v>183</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88">
       <c r="A88" s="8" t="s">
         <v>185</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89">
       <c r="A89" s="8" t="s">
         <v>187</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90">
       <c r="A90" s="8" t="s">
         <v>189</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91">
       <c r="A91" s="8" t="s">
         <v>191</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92">
       <c r="A92" s="8" t="s">
         <v>193</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93">
       <c r="A93" s="8" t="s">
         <v>195</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94">
       <c r="A94" s="8" t="s">
         <v>197</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" ht="27">
       <c r="A95" s="9" t="s">
         <v>199</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96">
       <c r="A96" s="8" t="s">
         <v>201</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97">
       <c r="A97" s="8" t="s">
         <v>203</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98">
       <c r="A98" s="8" t="s">
         <v>205</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" ht="27">
       <c r="A99" s="9" t="s">
         <v>207</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100">
       <c r="A100" s="8" t="s">
         <v>209</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101">
       <c r="A101" s="8" t="s">
         <v>211</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102">
       <c r="A102" s="8" t="s">
         <v>213</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103">
       <c r="A103" s="8" t="s">
         <v>215</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104">
       <c r="A104" s="8" t="s">
         <v>217</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105">
       <c r="A105" s="8" t="s">
         <v>219</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106">
       <c r="A106" s="8" t="s">
         <v>221</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107">
       <c r="A107" s="8" t="s">
         <v>223</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108">
       <c r="A108" s="8" t="s">
         <v>225</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109">
       <c r="A109" s="8" t="s">
         <v>227</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110">
       <c r="A110" s="8" t="s">
         <v>229</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111">
       <c r="A111" s="8" t="s">
         <v>231</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112">
       <c r="A112" s="8" t="s">
         <v>233</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113">
       <c r="A113" s="8" t="s">
         <v>235</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114">
       <c r="A114" s="8" t="s">
         <v>237</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115">
       <c r="A115" s="8" t="s">
         <v>239</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116">
       <c r="A116" s="8" t="s">
         <v>241</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" ht="27">
       <c r="A117" s="9" t="s">
         <v>243</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118">
       <c r="A118" s="8" t="s">
         <v>245</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119">
       <c r="A119" s="8" t="s">
         <v>247</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120">
       <c r="A120" s="8" t="s">
         <v>249</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121">
       <c r="A121" s="8" t="s">
         <v>251</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" ht="27">
       <c r="A122" s="9" t="s">
         <v>253</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123">
       <c r="A123" s="8" t="s">
         <v>255</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124">
       <c r="A124" s="8" t="s">
         <v>257</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125">
       <c r="A125" s="8" t="s">
         <v>259</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126">
       <c r="A126" s="8" t="s">
         <v>261</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127">
       <c r="A127" s="8" t="s">
         <v>263</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128">
       <c r="A128" s="8" t="s">
         <v>265</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129">
       <c r="A129" s="8" t="s">
         <v>267</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130">
       <c r="A130" s="8" t="s">
         <v>269</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131">
       <c r="A131" s="8" t="s">
         <v>271</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132">
       <c r="A132" s="8" t="s">
         <v>273</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133">
       <c r="A133" s="8" t="s">
         <v>275</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134">
       <c r="A134" s="8" t="s">
         <v>277</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135">
       <c r="A135" s="8" t="s">
         <v>279</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136">
       <c r="A136" s="8" t="s">
         <v>281</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137">
       <c r="A137" s="8" t="s">
         <v>283</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138">
       <c r="A138" s="8" t="s">
         <v>285</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" ht="27">
       <c r="A139" s="9" t="s">
         <v>287</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140">
       <c r="A140" s="8" t="s">
         <v>289</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141">
       <c r="A141" s="8" t="s">
         <v>291</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142">
       <c r="A142" s="8" t="s">
         <v>293</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143">
       <c r="A143" s="8" t="s">
         <v>295</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144">
       <c r="A144" s="8" t="s">
         <v>297</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145">
       <c r="A145" s="8" t="s">
         <v>299</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146">
       <c r="A146" s="8" t="s">
         <v>301</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147">
       <c r="A147" s="8" t="s">
         <v>303</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148">
       <c r="A148" s="8" t="s">
         <v>305</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149">
       <c r="A149" s="8" t="s">
         <v>307</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150">
       <c r="A150" s="8" t="s">
         <v>309</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151">
       <c r="A151" s="8" t="s">
         <v>311</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152">
       <c r="A152" s="8" t="s">
         <v>313</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153">
       <c r="A153" s="8" t="s">
         <v>315</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154">
       <c r="A154" s="8" t="s">
         <v>317</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155">
       <c r="A155" s="8" t="s">
         <v>319</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156">
       <c r="A156" s="8" t="s">
         <v>321</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157">
       <c r="A157" s="8" t="s">
         <v>323</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158">
       <c r="A158" s="8" t="s">
         <v>325</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159">
       <c r="A159" s="8" t="s">
         <v>327</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160">
       <c r="A160" s="8" t="s">
         <v>329</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161">
       <c r="A161" s="8" t="s">
         <v>331</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162">
       <c r="A162" s="8" t="s">
         <v>333</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163">
       <c r="A163" s="8" t="s">
         <v>335</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164">
       <c r="A164" s="8" t="s">
         <v>337</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165">
       <c r="A165" s="8" t="s">
         <v>339</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166">
       <c r="A166" s="8" t="s">
         <v>341</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167">
       <c r="A167" s="8" t="s">
         <v>343</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168">
       <c r="A168" s="8" t="s">
         <v>345</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169">
       <c r="A169" s="8" t="s">
         <v>347</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170">
       <c r="A170" s="8" t="s">
         <v>349</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171">
       <c r="A171" s="8" t="s">
         <v>351</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172">
       <c r="A172" s="8" t="s">
         <v>353</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173">
       <c r="A173" s="8" t="s">
         <v>355</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174">
       <c r="A174" s="8" t="s">
         <v>357</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175">
       <c r="A175" s="8" t="s">
         <v>359</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176">
       <c r="A176" s="8" t="s">
         <v>361</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177">
       <c r="A177" s="8" t="s">
         <v>363</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178">
       <c r="A178" s="8" t="s">
         <v>365</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179">
       <c r="A179" s="8" t="s">
         <v>367</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180">
       <c r="A180" s="8" t="s">
         <v>369</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181">
       <c r="A181" s="8" t="s">
         <v>371</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182">
       <c r="A182" s="8" t="s">
         <v>373</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" ht="42">
       <c r="A183" s="9" t="s">
         <v>375</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184">
       <c r="A184" s="8" t="s">
         <v>377</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185">
       <c r="A185" s="8" t="s">
         <v>379</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186">
       <c r="A186" s="8" t="s">
         <v>381</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187">
       <c r="A187" s="8" t="s">
         <v>383</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188">
       <c r="A188" s="8" t="s">
         <v>385</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189">
       <c r="A189" s="8" t="s">
         <v>387</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190">
       <c r="A190" s="8" t="s">
         <v>389</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191">
       <c r="A191" s="8" t="s">
         <v>391</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192">
       <c r="A192" s="8" t="s">
         <v>393</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193">
       <c r="A193" s="8" t="s">
         <v>395</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194">
       <c r="A194" s="8" t="s">
         <v>397</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195">
       <c r="A195" s="8" t="s">
         <v>399</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196">
       <c r="A196" s="8" t="s">
         <v>401</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197">
       <c r="A197" s="8" t="s">
         <v>403</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198">
       <c r="A198" s="8" t="s">
         <v>405</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199">
       <c r="A199" s="8" t="s">
         <v>407</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200">
       <c r="A200" s="8" t="s">
         <v>409</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201">
       <c r="A201" s="8" t="s">
         <v>411</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202">
       <c r="A202" s="8" t="s">
         <v>413</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203">
       <c r="A203" s="8" t="s">
         <v>415</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204">
       <c r="A204" s="8" t="s">
         <v>417</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205">
       <c r="A205" s="8" t="s">
         <v>419</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206">
       <c r="A206" s="8" t="s">
         <v>421</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207">
       <c r="A207" s="8" t="s">
         <v>423</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208">
       <c r="A208" s="8" t="s">
         <v>425</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209">
       <c r="A209" s="8" t="s">
         <v>427</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" ht="27">
       <c r="A210" s="9" t="s">
         <v>429</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211">
       <c r="A211" s="8" t="s">
         <v>431</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212">
       <c r="A212" s="8" t="s">
         <v>433</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213">
       <c r="A213" s="8" t="s">
         <v>435</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214">
       <c r="A214" s="8" t="s">
         <v>437</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215">
       <c r="A215" s="8" t="s">
         <v>439</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216">
       <c r="A216" s="8" t="s">
         <v>441</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217">
       <c r="A217" s="8" t="s">
         <v>443</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218">
       <c r="A218" s="8" t="s">
         <v>445</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219">
       <c r="A219" s="8" t="s">
         <v>446</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220">
       <c r="A220" s="8" t="s">
         <v>448</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221">
       <c r="A221" s="8" t="s">
         <v>450</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222">
       <c r="A222" s="8" t="s">
         <v>452</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223">
       <c r="A223" s="8" t="s">
         <v>454</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224">
       <c r="A224" s="8" t="s">
         <v>456</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225">
       <c r="A225" s="8" t="s">
         <v>458</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226">
       <c r="A226" s="8" t="s">
         <v>460</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227">
       <c r="A227" s="8" t="s">
         <v>462</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228">
       <c r="A228" s="8" t="s">
         <v>464</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229">
       <c r="A229" s="8" t="s">
         <v>466</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230">
       <c r="A230" s="8" t="s">
         <v>468</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231">
       <c r="A231" s="8" t="s">
         <v>470</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232">
       <c r="A232" s="8" t="s">
         <v>472</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233">
       <c r="A233" s="8" t="s">
         <v>474</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234">
       <c r="A234" s="8" t="s">
         <v>476</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235">
       <c r="A235" s="8" t="s">
         <v>478</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236">
       <c r="A236" s="8" t="s">
         <v>480</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="237" ht="42">
       <c r="A237" s="9" t="s">
         <v>482</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238">
       <c r="A238" s="8" t="s">
         <v>484</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239">
       <c r="A239" s="8" t="s">
         <v>486</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" ht="27">
       <c r="A240" s="9" t="s">
         <v>488</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241">
       <c r="A241" s="8" t="s">
         <v>490</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242">
       <c r="A242" s="8" t="s">
         <v>492</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243">
       <c r="A243" s="8" t="s">
         <v>494</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244">
       <c r="A244" s="8" t="s">
         <v>496</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="245" ht="42">
       <c r="A245" s="9" t="s">
         <v>498</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246">
       <c r="A246" s="8" t="s">
         <v>500</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="247" ht="42">
       <c r="A247" s="9" t="s">
         <v>502</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248">
       <c r="A248" s="8" t="s">
         <v>504</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249">
       <c r="A249" s="8" t="s">
         <v>506</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" ht="27">
       <c r="A250" s="9" t="s">
         <v>508</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="251" ht="42">
       <c r="A251" s="9" t="s">
         <v>510</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252">
       <c r="A252" s="8" t="s">
         <v>512</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253">
       <c r="A253" s="8" t="s">
         <v>514</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254">
       <c r="A254" s="8" t="s">
         <v>516</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255">
       <c r="A255" s="8" t="s">
         <v>518</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" ht="27">
       <c r="A256" s="9" t="s">
         <v>520</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257">
       <c r="A257" s="8" t="s">
         <v>522</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258">
       <c r="A258" s="8" t="s">
         <v>524</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259">
       <c r="A259" s="8" t="s">
         <v>526</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260">
       <c r="A260" s="8" t="s">
         <v>528</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261">
       <c r="A261" s="8" t="s">
         <v>530</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262">
       <c r="A262" s="8" t="s">
         <v>532</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263">
       <c r="A263" s="8" t="s">
         <v>534</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264">
       <c r="A264" s="8" t="s">
         <v>536</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265">
       <c r="A265" s="8" t="s">
         <v>538</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266">
       <c r="A266" s="8" t="s">
         <v>540</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267">
       <c r="A267" s="8" t="s">
         <v>542</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268">
       <c r="A268" s="8" t="s">
         <v>544</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269">
       <c r="A269" s="8" t="s">
         <v>546</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270">
       <c r="A270" s="8" t="s">
         <v>548</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271">
       <c r="A271" s="8" t="s">
         <v>550</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272">
       <c r="A272" s="8" t="s">
         <v>552</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273">
       <c r="A273" s="8" t="s">
         <v>554</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274">
       <c r="A274" s="8" t="s">
         <v>556</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275">
       <c r="A275" s="8" t="s">
         <v>558</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" ht="27">
       <c r="A276" s="9" t="s">
         <v>560</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277">
       <c r="A277" s="8" t="s">
         <v>562</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278">
       <c r="A278" s="8" t="s">
         <v>564</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279">
       <c r="A279" s="8" t="s">
         <v>566</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" ht="27">
       <c r="A280" s="9" t="s">
         <v>568</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281">
       <c r="A281" s="8" t="s">
         <v>570</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282">
       <c r="A282" s="8" t="s">
         <v>572</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283">
       <c r="A283" s="9" t="s">
         <v>574</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284">
       <c r="A284" s="8" t="s">
         <v>576</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" ht="27">
       <c r="A285" s="9" t="s">
         <v>578</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286">
       <c r="A286" s="3" t="s">
         <v>7</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287">
       <c r="A287" s="3" t="s">
         <v>4</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288">
       <c r="A288" s="3" t="s">
         <v>11</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289">
       <c r="A289" s="3" t="s">
         <v>6</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290">
       <c r="A290" s="3" t="s">
         <v>9</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291">
       <c r="A291" s="3" t="s">
         <v>5</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292">
       <c r="A292" s="3" t="s">
         <v>10</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293">
       <c r="A293" s="3" t="s">
         <v>8</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294">
       <c r="A294" s="3" t="s">
         <v>587</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" ht="27">
       <c r="A295" s="2" t="s">
         <v>589</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" ht="27">
       <c r="A296" s="2" t="s">
         <v>591</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" ht="27">
       <c r="A297" s="2" t="s">
         <v>593</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" ht="27">
       <c r="A298" s="2" t="s">
         <v>574</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299">
       <c r="A299" s="3" t="s">
         <v>576</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" ht="27">
       <c r="A300" s="2" t="s">
         <v>578</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301">
       <c r="A301" s="3" t="s">
         <v>595</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302">
       <c r="A302" s="3" t="s">
         <v>596</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303">
       <c r="A303" s="3" t="s">
         <v>597</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304">
       <c r="A304" s="3" t="s">
         <v>598</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305">
       <c r="A305" s="3" t="s">
         <v>599</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306">
       <c r="A306" s="3" t="s">
         <v>600</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307">
       <c r="A307" s="3" t="s">
         <v>601</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308">
       <c r="A308" s="3" t="s">
         <v>602</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309">
       <c r="A309" s="3" t="s">
         <v>603</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310">
       <c r="A310" s="3" t="s">
         <v>604</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311">
       <c r="A311" s="3" t="s">
         <v>605</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312">
       <c r="A312" s="3" t="s">
         <v>607</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313">
       <c r="A313" s="3" t="s">
         <v>608</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314">
       <c r="A314" s="3" t="s">
         <v>609</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315">
       <c r="A315" s="3" t="s">
         <v>611</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316">
       <c r="A316" s="3" t="s">
         <v>613</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317">
       <c r="A317" s="3" t="s">
         <v>614</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318">
       <c r="A318" s="3" t="s">
         <v>615</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319">
       <c r="A319" s="3" t="s">
         <v>616</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320">
       <c r="A320" s="3" t="s">
         <v>617</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321">
       <c r="A321" s="3" t="s">
         <v>618</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322">
       <c r="A322" s="3" t="s">
         <v>619</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323">
       <c r="A323" s="3" t="s">
         <v>620</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324">
       <c r="A324" s="3" t="s">
         <v>621</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325">
       <c r="A325" s="3" t="s">
         <v>623</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326">
       <c r="A326" s="11" t="s">
         <v>620</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327">
       <c r="A327" s="11" t="s">
         <v>621</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328">
       <c r="A328" s="11" t="s">
         <v>623</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329">
       <c r="A329" s="10" t="s">
         <v>445</v>
       </c>
@@ -5990,27 +5990,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330">
       <c r="A330" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>3</v>
-      </c>
+    <row r="331">
+      <c r="C331" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
